--- a/Documentation/Weekly Tracker.xlsx
+++ b/Documentation/Weekly Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wildf\OneDrive\Desktop\Major Project\MajorProject\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBEDF979-AEAE-4134-B83E-D8D1FFEE8880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A65B8A8-089C-4B8B-AD11-F9E659AD530A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D814728-462F-40B2-A40E-9FB8EBFD6F04}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Team members</t>
   </si>
@@ -100,6 +100,21 @@
   </si>
   <si>
     <t>Mentor name(IBM)</t>
+  </si>
+  <si>
+    <t>Frontend Setup</t>
+  </si>
+  <si>
+    <t>Dataset collection and pre-processing</t>
+  </si>
+  <si>
+    <t>Loading csv dataset to mysql locally</t>
+  </si>
+  <si>
+    <t>Individual Dashboard Prototype as ipynb</t>
+  </si>
+  <si>
+    <t>Backend Setup using Django and creating model as sqlite database</t>
   </si>
 </sst>
 </file>
@@ -305,7 +320,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -313,6 +327,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45038D99-DCB0-495F-A28F-600D8339CAD5}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,49 +739,49 @@
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -792,21 +807,23 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -817,7 +834,9 @@
       <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -836,21 +855,23 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -861,7 +882,9 @@
       <c r="A20" s="2">
         <v>2</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -880,21 +903,23 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -924,15 +949,15 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -968,15 +993,15 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -1013,6 +1038,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
@@ -1020,11 +1050,6 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="F9:F11"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1032,18 +1057,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1270,6 +1295,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C1516C-C085-4DDD-8A94-D22681855C54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1D1BBDA-70BB-4FDB-B3D4-B88FEC5DA377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1282,14 +1315,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="3baa119d-cf30-45c3-8486-045763c251a7"/>
     <ds:schemaRef ds:uri="cc3838d0-f69e-42e8-be62-f3b536d06699"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C1516C-C085-4DDD-8A94-D22681855C54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documentation/Weekly Tracker.xlsx
+++ b/Documentation/Weekly Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wildf\OneDrive\Desktop\Major Project\MajorProject\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A65B8A8-089C-4B8B-AD11-F9E659AD530A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C8C7F1-F61C-4C11-AB80-03C8C4CDFAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D814728-462F-40B2-A40E-9FB8EBFD6F04}"/>
+    <workbookView xWindow="1920" yWindow="708" windowWidth="17280" windowHeight="11532" xr2:uid="{6D814728-462F-40B2-A40E-9FB8EBFD6F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Team members</t>
   </si>
@@ -115,6 +115,42 @@
   </si>
   <si>
     <t>Backend Setup using Django and creating model as sqlite database</t>
+  </si>
+  <si>
+    <t>API created on Django Rest Framework</t>
+  </si>
+  <si>
+    <t>M.S.L.V. Saranya</t>
+  </si>
+  <si>
+    <t>Sonali Nanda</t>
+  </si>
+  <si>
+    <t>Aditya Narayan Panda</t>
+  </si>
+  <si>
+    <t>Bhandari Sree Shivani</t>
+  </si>
+  <si>
+    <t>Frontend Homepage Designing</t>
+  </si>
+  <si>
+    <t>Designing on Figma</t>
+  </si>
+  <si>
+    <t>Frontend Individual Dashboard entry point Designing</t>
+  </si>
+  <si>
+    <t>Frontend Grouped Dashboard entry point Designing</t>
+  </si>
+  <si>
+    <t>Connecting backend to frontend</t>
+  </si>
+  <si>
+    <t>Analysis of retrieved data to gain information in the frontend</t>
+  </si>
+  <si>
+    <t>Creating the final Dashboard based of the information in the frontend</t>
   </si>
 </sst>
 </file>
@@ -320,6 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -327,7 +364,6 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45038D99-DCB0-495F-A28F-600D8339CAD5}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,49 +775,49 @@
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -807,15 +843,15 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -824,7 +860,9 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -837,7 +875,9 @@
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -855,15 +895,15 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -872,7 +912,9 @@
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -885,7 +927,9 @@
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -895,23 +939,27 @@
       <c r="A21" s="2">
         <v>3</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
@@ -920,7 +968,9 @@
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -930,8 +980,12 @@
       <c r="A24" s="2">
         <v>2</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -941,30 +995,38 @@
       <c r="A25" s="2">
         <v>3</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>1</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -974,8 +1036,12 @@
       <c r="A28" s="2">
         <v>2</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -993,22 +1059,26 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1018,8 +1088,12 @@
       <c r="A32" s="2">
         <v>2</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1029,8 +1103,12 @@
       <c r="A33" s="2">
         <v>3</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1038,11 +1116,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
@@ -1050,6 +1123,11 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="F9:F11"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1057,18 +1135,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1295,14 +1373,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C1516C-C085-4DDD-8A94-D22681855C54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1D1BBDA-70BB-4FDB-B3D4-B88FEC5DA377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1315,6 +1385,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="3baa119d-cf30-45c3-8486-045763c251a7"/>
     <ds:schemaRef ds:uri="cc3838d0-f69e-42e8-be62-f3b536d06699"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C1516C-C085-4DDD-8A94-D22681855C54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
